--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Onward Technologies Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Onward Technologies Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -1,37 +1,216 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Key Financial Ratios of Onward Technologies(in Rs. Cr.)</t>
+  </si>
+  <si>
+    <t>Mar 05</t>
+  </si>
+  <si>
+    <t>Mar 06</t>
+  </si>
+  <si>
+    <t>Mar 07</t>
+  </si>
+  <si>
+    <t>Mar 08</t>
+  </si>
+  <si>
+    <t>Mar 09</t>
+  </si>
+  <si>
+    <t>Mar 10</t>
+  </si>
+  <si>
+    <t>Mar 11</t>
+  </si>
+  <si>
+    <t>Mar 12</t>
+  </si>
+  <si>
+    <t>Mar 13</t>
+  </si>
+  <si>
+    <t>Mar 14</t>
+  </si>
+  <si>
+    <t>Mar 15</t>
+  </si>
+  <si>
+    <t>Mar 16</t>
+  </si>
+  <si>
+    <t>Mar 17</t>
+  </si>
+  <si>
+    <t>Mar 18</t>
+  </si>
+  <si>
+    <t>Mar 19</t>
+  </si>
+  <si>
+    <t>Mar 20</t>
+  </si>
+  <si>
+    <t>Mar 21</t>
+  </si>
+  <si>
+    <t>Mar 22</t>
+  </si>
+  <si>
+    <t>Mar 23</t>
+  </si>
+  <si>
+    <t>Mar 24</t>
+  </si>
+  <si>
+    <t>Basic EPS (Rs.)</t>
+  </si>
+  <si>
+    <t>Diluted EPS (Rs.)</t>
+  </si>
+  <si>
+    <t>Cash EPS (Rs.)</t>
+  </si>
+  <si>
+    <t>Book Value [ExclRevalReserve]/Share (Rs.)</t>
+  </si>
+  <si>
+    <t>Book Value [InclRevalReserve]/Share (Rs.)</t>
+  </si>
+  <si>
+    <t>Dividend / Share(Rs.)</t>
+  </si>
+  <si>
+    <t>Revenue from Operations/Share (Rs.)</t>
+  </si>
+  <si>
+    <t>PBDIT/Share (Rs.)</t>
+  </si>
+  <si>
+    <t>PBIT/Share (Rs.)</t>
+  </si>
+  <si>
+    <t>PBT/Share (Rs.)</t>
+  </si>
+  <si>
+    <t>Net Profit/Share (Rs.)</t>
+  </si>
+  <si>
+    <t>PBDIT Margin (%)</t>
+  </si>
+  <si>
+    <t>PBIT Margin (%)</t>
+  </si>
+  <si>
+    <t>PBT Margin (%)</t>
+  </si>
+  <si>
+    <t>Net Profit Margin (%)</t>
+  </si>
+  <si>
+    <t>Return on Networth / Equity (%)</t>
+  </si>
+  <si>
+    <t>Return on Capital Employed (%)</t>
+  </si>
+  <si>
+    <t>Return on Assets (%)</t>
+  </si>
+  <si>
+    <t>Total Debt/Equity (X)</t>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio (%)</t>
+  </si>
+  <si>
+    <t>Current Ratio (X)</t>
+  </si>
+  <si>
+    <t>Quick Ratio (X)</t>
+  </si>
+  <si>
+    <t>Inventory Turnover Ratio (X)</t>
+  </si>
+  <si>
+    <t>Dividend Payout Ratio (NP) (%)</t>
+  </si>
+  <si>
+    <t>Dividend Payout Ratio (CP) (%)</t>
+  </si>
+  <si>
+    <t>Earnings Retention Ratio (%)</t>
+  </si>
+  <si>
+    <t>Cash Earnings Retention Ratio (%)</t>
+  </si>
+  <si>
+    <t>Enterprise Value (Cr.)</t>
+  </si>
+  <si>
+    <t>EV/Net Operating Revenue (X)</t>
+  </si>
+  <si>
+    <t>EV/EBITDA (X)</t>
+  </si>
+  <si>
+    <t>MarketCap/Net Operating Revenue (X)</t>
+  </si>
+  <si>
+    <t>Retention Ratios (%)</t>
+  </si>
+  <si>
+    <t>Price/BV (X)</t>
+  </si>
+  <si>
+    <t>Price/Net Operating Revenue</t>
+  </si>
+  <si>
+    <t>Earnings Yield</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +225,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2554 +541,2434 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
+    <row r="1" spans="1:36">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="1">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="1">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="1">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Key Financial Ratios of Onward Technologies(in Rs. Cr.)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Basic EPS (Rs.)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Diluted EPS (Rs.)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Cash EPS (Rs.)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Book Value [ExclRevalReserve]/Share (Rs.)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Book Value [InclRevalReserve]/Share (Rs.)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Dividend / Share(Rs.)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Revenue from Operations/Share (Rs.)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>PBDIT/Share (Rs.)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>PBIT/Share (Rs.)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>PBT/Share (Rs.)</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Net Profit/Share (Rs.)</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>PBDIT Margin (%)</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>PBIT Margin (%)</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>PBT Margin (%)</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Net Profit Margin (%)</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Return on Networth / Equity (%)</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Return on Capital Employed (%)</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Return on Assets (%)</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Total Debt/Equity (X)</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Asset Turnover Ratio (%)</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Current Ratio (X)</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Quick Ratio (X)</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Inventory Turnover Ratio (X)</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Dividend Payout Ratio (NP) (%)</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Dividend Payout Ratio (CP) (%)</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>Earnings Retention Ratio (%)</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>Cash Earnings Retention Ratio (%)</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Enterprise Value (Cr.)</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>EV/Net Operating Revenue (X)</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>EV/EBITDA (X)</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>MarketCap/Net Operating Revenue (X)</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>Retention Ratios (%)</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>Price/BV (X)</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Price/Net Operating Revenue</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>Earnings Yield</t>
-        </is>
+    <row r="2" spans="1:36">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Mar 05</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:36">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>2.85</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2.85</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>4.74</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>39.33</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>39.33</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>15.42</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>3.7</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>2.22</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>1.49</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>2.85</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>24</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>14.42</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>9.65</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>18.47</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>7.24</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>6.15</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>5.44</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>0.24</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>29.48</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>2.7</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>2.57</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>20.46</v>
       </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
         <v>100</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>100</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>83.83</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>4.35</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>18.14</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>3.75</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>100</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>1.47</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>3.75</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mar 06</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:36">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>2.54</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2.54</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4.97</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>44.52</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>44.52</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>23.35</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>6.24</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>3.91</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>2.87</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>2.54</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>26.74</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>16.75</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>12.27</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>10.89</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>5.71</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>4.86</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>4.06</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>0.28</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>37.36</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>2.76</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>2.76</v>
       </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <v>100</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>100</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>98.86</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>3.21</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>12.02</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>2.9</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>100</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>1.52</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>2.9</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mar 07</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:36">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>0.6</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2.83</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>45.17</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>45.17</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>25.47</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>4.35</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>2.17</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>1.24</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>0.6</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>17.08</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>8.529999999999999</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>4.87</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>2.33</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>1.31</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>1.02</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>0.86</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>0.39</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>36.8</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>3.12</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>3.12</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <v>100</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>100</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>85.69</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>2.54</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>14.87</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>2.04</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>100</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>1.15</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>2.04</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Mar 08</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:36">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>-0.57</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>-0.57</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1.72</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>44.53</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>44.53</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>23.57</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>2.81</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.52</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>-0.99</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>-0.57</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>11.9</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>2.2</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>-4.22</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>-2.41</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>-1.28</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>-1.06</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>-0.76</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>0.39</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>31.5</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>1.46</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>1.46</v>
       </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
         <v>56</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>1.79</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>15.03</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>1.14</v>
       </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
         <v>0.61</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>1.14</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Mar 09</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:36">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>-8.279999999999999</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>-8.279999999999999</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-5.99</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>14.1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>14.1</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>17.91</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>-1.61</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>-3.9</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>-6.09</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>-8.279999999999999</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>-8.98</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>-21.76</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>-33.98</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>-46.22</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>-58.7</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>-42.55</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>-19.21</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>1.05</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>41.56</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>0.5</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>0.5</v>
       </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
         <v>32.64</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>1.37</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>-15.28</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>0.57</v>
       </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
         <v>0.72</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>0.57</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>-0.82</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mar 10</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:36">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>-2.73</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>-2.73</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-0.41</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>11.37</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>11.37</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>26.28</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.24</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>-2.07</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>-3.84</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>-2.73</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>0.91</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>-7.88</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>-14.59</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>-10.37</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>-23.97</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>-20.91</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>-7.77</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>1.22</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>74.92</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>0.58</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>0.58</v>
       </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
         <v>42.67</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>1.22</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>133.56</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>0.7</v>
       </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
         <v>1.63</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>0.7</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Mar 11</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:36">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>2.8</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2.66</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>5.03</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>14.53</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>14.53</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>34.72</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>6.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>4.26</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>2.79</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>2.79</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>18.71</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>12.27</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>8.029999999999999</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>8.029999999999999</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>19.21</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>12.77</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>7.57</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>0.77</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>94.20999999999999</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>0.68</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>0.68</v>
       </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
         <v>74.09</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>1.6</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>8.56</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>1.3</v>
       </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
         <v>3.1</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9">
         <v>1.3</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9">
         <v>0.06</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Mar 12</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:36">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>6.42</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>5.95</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>8.6</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>20.68</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>20.68</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>45.57</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>8.91</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>6.69</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>4.97</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>6.38</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>19.54</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>14.67</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>10.89</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>14</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>30.85</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>21.96</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>13.14</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>0.64</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>93.90000000000001</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>0.8100000000000001</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>0.8100000000000001</v>
       </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
         <v>68.48999999999999</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>1.11</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>5.69</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>0.83</v>
       </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
         <v>1.83</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10">
         <v>0.83</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10">
         <v>0.17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Mar 13</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:36">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>2.75</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>2.51</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>4.85</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>23.63</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>23.63</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>48.55</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>7.45</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>5.31</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>3.81</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>2.71</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>15.35</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>10.94</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>7.85</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>5.58</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>11.47</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>9.1</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>5.43</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>0.46</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>97.36</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>0.74</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>0.74</v>
       </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
         <v>100</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>100</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>70.94</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>1.06</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>6.88</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>0.84</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11">
         <v>100</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11">
         <v>1.72</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11">
         <v>0.84</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11">
         <v>0.07000000000000001</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Mar 14</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:36">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>3.99</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3.79</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>5.91</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>27.96</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>27.96</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>51.83</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>9.17</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>7.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>5.61</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>3.94</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>17.7</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>13.89</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>10.81</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>7.59</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>14.08</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>12.05</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>7.15</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>0.46</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>94.17</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>0.75</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>0.75</v>
       </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
         <v>100</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>100</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>84.31999999999999</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>1.14</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12">
         <v>6.45</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12">
         <v>0.91</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12">
         <v>100</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12">
         <v>1.68</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12">
         <v>0.91</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12">
         <v>0.08</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Mar 15</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:36">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>1.2</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1.12</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>4.45</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>29.01</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>29.01</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>59.5</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>6.66</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>3.4</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>2.04</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>1.19</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>11.2</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>5.72</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>3.43</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>1.99</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>4.08</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>3.56</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>2.14</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>0.26</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>107.82</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>0.7</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>0.6899999999999999</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>268.34</v>
       </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
         <v>82.92</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13">
         <v>0.96</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13">
         <v>8.539999999999999</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13">
         <v>0.84</v>
       </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
         <v>1.73</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13">
         <v>0.84</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13">
         <v>0.02</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Mar 16</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:36">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>0.73</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.68</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>2.98</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>28.81</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>28.81</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>59.74</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>7.61</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>5.36</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>3.94</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>0.72</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>12.74</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>8.960000000000001</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>6.59</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>1.21</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>2.51</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>2.29</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>1.17</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>0.35</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>97.01000000000001</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>0.6</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14">
         <v>0.6</v>
       </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>137.99</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>33.54</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14">
         <v>-37.99</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14">
         <v>66.45999999999999</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14">
         <v>117.66</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14">
         <v>1.32</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14">
         <v>10.35</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14">
         <v>1.17</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14">
         <v>-37.99</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14">
         <v>2.42</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14">
         <v>1.17</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14">
         <v>0.01</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Mar 17</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:36">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>1.93</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1.8</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>4.41</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>31.34</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>31.34</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>62.24</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>7.08</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>4.59</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>3.25</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>1.92</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>11.37</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>7.37</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>5.21</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>3.08</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>6.12</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>5.48</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>3.1</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15">
         <v>0.26</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>100.75</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>0.85</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15">
         <v>0.85</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15">
         <v>412.58</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15">
         <v>0.18</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15">
         <v>99.81999999999999</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15">
         <v>99.93000000000001</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15">
         <v>132.36</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15">
         <v>1.4</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15">
         <v>12.3</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15">
         <v>1.29</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15">
         <v>99.81</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15">
         <v>2.57</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15">
         <v>1.29</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15">
         <v>0.02</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Mar 18</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:36">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>1.43</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1.43</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>4.35</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>33.37</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>33.37</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>68.58</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>6.49</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>3.56</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>2.16</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>1.42</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>9.460000000000001</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>5.18</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>3.14</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>2.06</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>4.24</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>10.2</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>2.4</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16">
         <v>0.3</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16">
         <v>116.4</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>0.75</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16">
         <v>0.75</v>
       </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
         <v>69.79000000000001</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z16">
         <v>22.72</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16">
         <v>30.21</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16">
         <v>77.28</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16">
         <v>149.74</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16">
         <v>1.4</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16">
         <v>14.84</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16">
         <v>1.27</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16">
         <v>30.2</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16">
         <v>2.62</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16">
         <v>1.27</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16">
         <v>0.02</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mar 19</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:36">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>5.95</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>5.7</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>8.960000000000001</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>38.67</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>38.67</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>1.5</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>74.78</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>12.67</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>9.619999999999999</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>8.31</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>5.92</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>16.94</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>12.87</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>11.11</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>7.91</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>15.3</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>24</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>9.539999999999999</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17">
         <v>0.27</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17">
         <v>120.59</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>0.95</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17">
         <v>0.95</v>
       </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <v>16.78</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z17">
         <v>11.08</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17">
         <v>83.22</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17">
         <v>88.92</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17">
         <v>122.09</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17">
         <v>1.03</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17">
         <v>6.1</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17">
         <v>0.92</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17">
         <v>83.20999999999999</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17">
         <v>1.77</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17">
         <v>0.92</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17">
         <v>0.09</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mar 20</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:36">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>3.39</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3.26</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>9.73</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>38.31</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>38.31</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>1.5</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>112.55</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>13.12</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>6.77</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>4.71</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>3.38</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>11.65</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>6.01</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>4.18</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>3</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>8.81</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>14.59</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>4.59</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18">
         <v>0.11</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18">
         <v>153.3</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>1.27</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18">
         <v>1.27</v>
       </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
         <v>44.24</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18">
         <v>15.35</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18">
         <v>55.76</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18">
         <v>84.65000000000001</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18">
         <v>65.65000000000001</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18">
         <v>0.36</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18">
         <v>3.12</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18">
         <v>0.39</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18">
         <v>55.75</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18">
         <v>1.15</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18">
         <v>0.39</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Mar 21</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:36">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>7.8</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>7.5</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>13.44</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>45.06</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>45.06</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>105.68</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>17.18</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>11.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>10.23</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>7.75</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>16.25</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>10.88</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>9.67</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>7.33</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>17.2</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>22.28</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>10.8</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19">
         <v>0.01</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19">
         <v>147.32</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>1.83</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19">
         <v>1.83</v>
       </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <v>19.2</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z19">
         <v>11.07</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19">
         <v>80.8</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19">
         <v>88.93000000000001</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19">
         <v>172.69</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19">
         <v>1</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19">
         <v>6.15</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19">
         <v>1.07</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19">
         <v>80.79000000000001</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19">
         <v>2.51</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19">
         <v>1.07</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19">
         <v>0.07000000000000001</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Mar 22</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:36">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>4.97</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>4.79</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>8.42</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>67.26000000000001</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>67.26000000000001</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>3</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>106.44</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>10.55</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>6.37</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>5.91</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>4.23</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>9.91</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>5.98</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>5.55</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>3.97</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>6.29</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>8.58</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20">
         <v>4.34</v>
       </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <v>1.41</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20">
         <v>2.36</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20">
         <v>2.36</v>
       </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
         <v>56.27</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z20">
         <v>28.31</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20">
         <v>43.73</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20">
         <v>71.69</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20">
         <v>743.64</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20">
         <v>3.17</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20">
         <v>32</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20">
         <v>3.38</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20">
         <v>43.72</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20">
         <v>5.36</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20">
         <v>3.38</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20">
         <v>0.01</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Mar 23</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:36">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>7.34</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>7.16</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>13</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>72.3</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>72.3</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>141.3</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>16.18</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>10.49</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>9.74</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>7.3</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>11.45</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>7.42</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>6.89</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>5.16</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>10.1</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>13.7</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21">
         <v>7.46</v>
       </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
         <v>1.46</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21">
         <v>2.67</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21">
         <v>2.67</v>
       </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
         <v>40.78</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21">
         <v>22.91</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21">
         <v>59.22</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21">
         <v>77.09</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21">
         <v>609.15</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21">
         <v>1.93</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21">
         <v>16.88</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21">
         <v>2.04</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21">
         <v>59.21</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21">
         <v>3.98</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21">
         <v>2.04</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21">
         <v>0.03</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Mar 24</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:36">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>12.37</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>12.1</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>18.04</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>83.28</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>83.28</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>5</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>153.62</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>22.91</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>17.18</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>16.54</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>12.31</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>14.91</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>11.18</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>10.76</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22">
         <v>8.01</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22">
         <v>14.78</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22">
         <v>18.44</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22">
         <v>10.63</v>
       </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <v>1.44</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V22">
         <v>3.09</v>
       </c>
-      <c r="W22" t="n">
+      <c r="W22">
         <v>3.09</v>
       </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>24.2</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="Z22">
         <v>16.51</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AA22">
         <v>75.8</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AB22">
         <v>83.48999999999999</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AC22">
         <v>976.01</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AD22">
         <v>2.82</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AE22">
         <v>18.92</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AF22">
         <v>2.88</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AG22">
         <v>75.79000000000001</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AH22">
         <v>5.32</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AI22">
         <v>2.88</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AJ22">
         <v>0.03</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>